--- a/scraping/file_parser/excel_parser/test_annex10_data/annex-10-2020.xlsx
+++ b/scraping/file_parser/excel_parser/test_annex10_data/annex-10-2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr saveExternalLinkValues="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elio\Documents\GitHub\MediSeeUU\scraping\file_parser\excel_parser\test_annex10_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30BA9B2-6950-428C-AB63-F993F2B8F46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7BE42-3E75-4D9B-B863-66C794EBEAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1668" yWindow="12852" windowWidth="26136" windowHeight="17496" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial evaluation - Positive " sheetId="25" r:id="rId1"/>
@@ -23,9 +23,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Initial evaluation - Positive '!$A$14:$R$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Initial evaluation - Positive '!$A$1:$N$12</definedName>
     <definedName name="Date" localSheetId="2">'Initial evaluation - Withdrawn'!$A$6</definedName>
     <definedName name="Head" localSheetId="2">'Initial evaluation - Withdrawn'!$A$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Initial evaluation - Positive '!$A$1:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3126,32 +3126,32 @@
     <cellStyle name="Accent4" xfId="37" builtinId="41" hidden="1"/>
     <cellStyle name="Accent5" xfId="41" builtinId="45" hidden="1"/>
     <cellStyle name="Accent6" xfId="45" builtinId="49" hidden="1"/>
-    <cellStyle name="Bad" xfId="17" builtinId="27" hidden="1"/>
     <cellStyle name="Body text (Agency)" xfId="1" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Explanatory Text" xfId="23" builtinId="53" hidden="1"/>
     <cellStyle name="Explanatory text (Agency)" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Good" xfId="16" builtinId="26" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16" hidden="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="20" builtinId="24" hidden="1"/>
+    <cellStyle name="Goed" xfId="16" builtinId="26" hidden="1"/>
     <cellStyle name="Heading 1 (Agency)" xfId="3" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17" hidden="1"/>
     <cellStyle name="Heading 2 (Agency)" xfId="4" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18" hidden="1"/>
     <cellStyle name="Heading 3 (Agency)" xfId="5" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19" hidden="1"/>
     <cellStyle name="Heading 4 (Agency)" xfId="6" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Heading 5 (Agency)" xfId="7" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Input" xfId="19" builtinId="20" hidden="1"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24" hidden="1"/>
-    <cellStyle name="Neutral" xfId="18" builtinId="28" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Invoer" xfId="19" builtinId="20" hidden="1"/>
+    <cellStyle name="Kop 1" xfId="12" builtinId="16" hidden="1"/>
+    <cellStyle name="Kop 2" xfId="13" builtinId="17" hidden="1"/>
+    <cellStyle name="Kop 3" xfId="14" builtinId="18" hidden="1"/>
+    <cellStyle name="Kop 4" xfId="15" builtinId="19" hidden="1"/>
+    <cellStyle name="Neutraal" xfId="18" builtinId="28" hidden="1"/>
     <cellStyle name="Normal 2" xfId="49" xr:uid="{8DFEF855-BF6E-49A5-989E-34BFA1CFA29A}"/>
-    <cellStyle name="Note" xfId="22" builtinId="10" hidden="1"/>
+    <cellStyle name="Notitie" xfId="22" builtinId="10" hidden="1"/>
+    <cellStyle name="Ongeldig" xfId="17" builtinId="27" hidden="1"/>
     <cellStyle name="Ref. (Agency)" xfId="8" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Subtitle (Agency)" xfId="9" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Title" xfId="11" builtinId="15" hidden="1"/>
+    <cellStyle name="Titel" xfId="11" builtinId="15" hidden="1"/>
     <cellStyle name="Title (Agency)" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Total" xfId="24" builtinId="25" hidden="1"/>
-    <cellStyle name="Warning Text" xfId="21" builtinId="11" hidden="1"/>
+    <cellStyle name="Totaal" xfId="24" builtinId="25" hidden="1"/>
+    <cellStyle name="Verklarende tekst" xfId="23" builtinId="53" hidden="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="21" builtinId="11" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3723,8 +3723,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8553450" y="114300"/>
-          <a:ext cx="3493770" cy="544830"/>
+          <a:off x="8549640" y="114300"/>
+          <a:ext cx="3497580" cy="548640"/>
           <a:chOff x="712" y="7"/>
           <a:chExt cx="367" cy="57"/>
         </a:xfrm>
@@ -4159,7 +4159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4485,47 +4485,47 @@
       <pane xSplit="2" ySplit="14" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="59.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.69921875" style="1" customWidth="1"/>
-    <col min="3" max="5" width="13.8984375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="13.8984375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="56.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="59.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="13.875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="56.875" style="1" customWidth="1"/>
     <col min="11" max="14" width="21" style="1" customWidth="1"/>
-    <col min="15" max="15" width="26.09765625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="11.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:18" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="36" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="38"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="39">
         <v>44361</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="17.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="34"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -4545,7 +4545,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" s="21" customFormat="1" ht="50.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>70</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>82</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>94</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>98</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>103</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>107</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>112</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>117</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>122</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>128</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>132</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>137</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>139</v>
       </c>
@@ -5830,7 +5830,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>144</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>148</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>153</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>157</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>162</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>167</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>172</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>177</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>182</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>187</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>197</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>202</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>207</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>212</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>213</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>218</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>220</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>223</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>224</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>228</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>233</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>238</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>243</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>247</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>251</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>256</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>261</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>265</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>269</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>274</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>277</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>281</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>286</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>291</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>293</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>297</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>302</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>307</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>312</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>317</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>321</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>323</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>328</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>332</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>336</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>340</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>345</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>349</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>354</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>358</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
         <v>363</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>367</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>372</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
         <v>376</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
         <v>380</v>
       </c>
@@ -8676,7 +8676,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>383</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>388</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>392</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>397</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>401</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>406</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>411</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>415</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
         <v>419</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>424</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>428</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>433</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>435</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>438</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>442</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>443</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>448</v>
       </c>
@@ -9545,364 +9545,364 @@
         <v>274</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
     </row>
-    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
     </row>
-    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
     </row>
-    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
     </row>
-    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
     </row>
-    <row r="118" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
     </row>
-    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
     </row>
-    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
     </row>
-    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
     </row>
-    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
     </row>
-    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
     </row>
-    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
     </row>
-    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
     </row>
-    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
     </row>
-    <row r="130" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
     </row>
-    <row r="131" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
     </row>
-    <row r="132" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
     </row>
-    <row r="134" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
     </row>
-    <row r="135" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
     </row>
-    <row r="136" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
     </row>
-    <row r="137" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
     </row>
-    <row r="138" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
     </row>
-    <row r="139" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
     </row>
-    <row r="140" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
     </row>
-    <row r="141" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
     </row>
-    <row r="142" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
     </row>
-    <row r="143" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
     </row>
-    <row r="144" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
     </row>
-    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
     </row>
-    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
     </row>
-    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
     </row>
-    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
     </row>
-    <row r="149" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
     </row>
-    <row r="150" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
     </row>
-    <row r="152" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
     </row>
-    <row r="153" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
     </row>
-    <row r="154" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
     </row>
-    <row r="155" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
     </row>
-    <row r="156" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
     </row>
-    <row r="157" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
     </row>
-    <row r="158" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
     </row>
-    <row r="159" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
     </row>
-    <row r="160" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
     </row>
-    <row r="161" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
     </row>
-    <row r="162" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
     </row>
-    <row r="163" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
@@ -9930,21 +9930,21 @@
       <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="57.19921875" customWidth="1"/>
-    <col min="10" max="10" width="39.59765625" customWidth="1"/>
-    <col min="11" max="12" width="15.59765625" customWidth="1"/>
-    <col min="13" max="13" width="16.59765625" customWidth="1"/>
-    <col min="14" max="14" width="15.59765625" customWidth="1"/>
-    <col min="15" max="15" width="20.69921875" customWidth="1"/>
-    <col min="16" max="17" width="11.8984375" customWidth="1"/>
+    <col min="3" max="8" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="57.25" customWidth="1"/>
+    <col min="10" max="10" width="39.625" customWidth="1"/>
+    <col min="11" max="12" width="15.625" customWidth="1"/>
+    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
+    <col min="15" max="15" width="20.75" customWidth="1"/>
+    <col min="16" max="17" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -9963,7 +9963,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -9982,7 +9982,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10001,7 +10001,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -10020,7 +10020,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10039,7 +10039,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10058,7 +10058,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>'Initial evaluation - Positive '!A7</f>
         <v>44361</v>
@@ -10080,7 +10080,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="str">
         <f>'Initial evaluation - Positive '!A8</f>
         <v>European Medicines Agency</v>
@@ -10102,7 +10102,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10121,7 +10121,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="17.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
@@ -10142,7 +10142,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -10161,7 +10161,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -10180,7 +10180,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="14" spans="1:17" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -10233,7 +10233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>453</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>457</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>462</v>
       </c>
@@ -10366,14 +10366,14 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
     </row>
   </sheetData>
@@ -10394,39 +10394,39 @@
       <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
     <col min="2" max="2" width="30.5" customWidth="1"/>
-    <col min="3" max="5" width="13.69921875" customWidth="1"/>
+    <col min="3" max="5" width="13.75" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="64.19921875" customWidth="1"/>
-    <col min="8" max="8" width="28.09765625" customWidth="1"/>
-    <col min="9" max="10" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="64.25" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="10" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>'Initial evaluation - Positive '!A7</f>
         <v>44361</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="str">
         <f>'Initial evaluation - Positive '!A8</f>
         <v>European Medicines Agency</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="27" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" s="17" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>466</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>471</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>476</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>481</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>485</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>486</v>
       </c>
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>489</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>494</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>499</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="28" t="s">
         <v>501</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="28" t="s">
         <v>506</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="28" t="s">
         <v>507</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="28" t="s">
         <v>512</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>517</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>522</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>526</v>
       </c>
@@ -10965,7 +10965,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="33"/>
     </row>
   </sheetData>
@@ -10989,17 +10989,17 @@
       <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" customWidth="1"/>
-    <col min="3" max="6" width="12.69921875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.09765625" customWidth="1"/>
-    <col min="8" max="9" width="12.19921875" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" customWidth="1"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="6" width="12.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.125" customWidth="1"/>
+    <col min="8" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11007,7 +11007,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11015,7 +11015,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -11023,7 +11023,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11031,7 +11031,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -11039,7 +11039,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -11047,7 +11047,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>'Initial evaluation - Positive '!A7</f>
         <v>44361</v>
@@ -11058,7 +11058,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="str">
         <f>'Initial evaluation - Positive '!A8</f>
         <v>European Medicines Agency</v>
@@ -11069,7 +11069,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -11077,7 +11077,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="20" t="s">
         <v>25</v>
       </c>
@@ -11087,7 +11087,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -11095,7 +11095,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -11103,7 +11103,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>534</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>537</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>539</v>
       </c>
@@ -11219,7 +11219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>542</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>545</v>
       </c>
@@ -11277,7 +11277,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="12" t="s">
         <v>548</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>551</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="12" t="s">
         <v>554</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>557</v>
       </c>
@@ -11393,7 +11393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>557</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>559</v>
       </c>
@@ -11451,7 +11451,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>562</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
         <v>565</v>
       </c>
@@ -11509,7 +11509,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="12" t="s">
         <v>567</v>
       </c>
@@ -11538,7 +11538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="12" t="s">
         <v>569</v>
       </c>
@@ -11567,7 +11567,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="12" t="s">
         <v>571</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>573</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="12" t="s">
         <v>575</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
         <v>577</v>
       </c>
@@ -11683,7 +11683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="12" t="s">
         <v>578</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="12" t="s">
         <v>581</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="12" t="s">
         <v>583</v>
       </c>
@@ -11770,7 +11770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="12" t="s">
         <v>585</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="12" t="s">
         <v>588</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="12" t="s">
         <v>591</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="12" t="s">
         <v>593</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="12" t="s">
         <v>595</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="12" t="s">
         <v>597</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="12" t="s">
         <v>599</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="12" t="s">
         <v>602</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="12" t="s">
         <v>602</v>
       </c>
@@ -12031,7 +12031,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="12" t="s">
         <v>602</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="12" t="s">
         <v>602</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
         <v>604</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="12" t="s">
         <v>607</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="12" t="s">
         <v>609</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="12" t="s">
         <v>611</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="12" t="s">
         <v>614</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>617</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>617</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>617</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="12" t="s">
         <v>619</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="12" t="s">
         <v>619</v>
       </c>
@@ -12379,7 +12379,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>620</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="12" t="s">
         <v>622</v>
       </c>
@@ -12435,7 +12435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="12" t="s">
         <v>625</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="12" t="s">
         <v>627</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="12" t="s">
         <v>629</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="12" t="s">
         <v>629</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="12" t="s">
         <v>632</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>634</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="12" t="s">
         <v>634</v>
       </c>
@@ -12638,7 +12638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="12" t="s">
         <v>636</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="12" t="s">
         <v>639</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
         <v>641</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
         <v>642</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
         <v>644</v>
       </c>
@@ -12783,7 +12783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="12" t="s">
         <v>646</v>
       </c>
@@ -12812,7 +12812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>648</v>
       </c>
@@ -12841,7 +12841,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>650</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>652</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>652</v>
       </c>
@@ -12928,7 +12928,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>654</v>
       </c>
@@ -12957,7 +12957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>657</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>660</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>662</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="33" t="s">
         <v>664</v>
       </c>
@@ -13073,7 +13073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>666</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>668</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>670</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>670</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>672</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>674</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>676</v>
       </c>
@@ -13276,7 +13276,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>678</v>
       </c>
@@ -13305,7 +13305,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>681</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>683</v>
       </c>
@@ -13363,7 +13363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>686</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>689</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>691</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>692</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>693</v>
       </c>
@@ -13508,7 +13508,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>695</v>
       </c>
@@ -13537,7 +13537,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>696</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>698</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>698</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>701</v>
       </c>
@@ -13672,18 +13672,18 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="21.5" customWidth="1"/>
     <col min="8" max="8" width="18.5" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13691,7 +13691,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -13699,7 +13699,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -13707,7 +13707,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -13715,7 +13715,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -13723,7 +13723,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -13731,7 +13731,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>'Initial evaluation - Positive '!A7</f>
         <v>44361</v>
@@ -13742,7 +13742,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="str">
         <f>'Initial evaluation - Positive '!A8</f>
         <v>European Medicines Agency</v>
@@ -13753,7 +13753,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -13761,7 +13761,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -13769,7 +13769,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="19.8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="19.5" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
         <v>26</v>
       </c>
@@ -13779,7 +13779,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -13787,7 +13787,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -13816,14 +13816,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>768</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
     </row>
   </sheetData>
@@ -13841,59 +13841,59 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="8" width="16.09765625" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="7" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>'Initial evaluation - Positive '!A7</f>
         <v>44361</v>
@@ -13903,7 +13903,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="str">
         <f>'Initial evaluation - Positive '!A8</f>
         <v>European Medicines Agency</v>
@@ -13913,21 +13913,21 @@
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>27</v>
       </c>
@@ -13936,14 +13936,14 @@
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
         <v>0</v>
       </c>
@@ -13969,7 +13969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>769</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>634</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>696</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>772</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="33"/>
     </row>
   </sheetData>
@@ -14091,62 +14091,62 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="20.59765625" customWidth="1"/>
-    <col min="8" max="8" width="18.09765625" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>'Initial evaluation - Positive '!A7</f>
         <v>44361</v>
@@ -14156,7 +14156,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="str">
         <f>'Initial evaluation - Positive '!A8</f>
         <v>European Medicines Agency</v>
@@ -14166,21 +14166,21 @@
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
         <v>28</v>
       </c>
@@ -14189,16 +14189,16 @@
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="34"/>
     </row>
-    <row r="14" spans="1:8" s="19" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="19" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>530</v>
       </c>
@@ -14250,7 +14250,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="33"/>
     </row>
   </sheetData>
